--- a/synapse_integration_testing/cleaned_data/timings_84_cleaned.xlsx
+++ b/synapse_integration_testing/cleaned_data/timings_84_cleaned.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Emulate Time of 84.json</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>SuperMIC</t>
+  </si>
+  <si>
+    <t>Comet</t>
   </si>
   <si>
     <t>Avg</t>
@@ -62,6 +65,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -143,10 +147,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -456,89 +460,186 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>10</v>
+      <c r="B7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1133.9230769231</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>17.353614292</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1174</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1119</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>268.08</v>
+        <v>1133.9230769231</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>2.3986662961</v>
+        <v>17.353614292</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>277</v>
+        <v>1174</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>266</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>467.8</v>
+        <v>268.08</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>5.3591044028</v>
+        <v>2.3986662961</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>485</v>
+        <v>277</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>463</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>467.8</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>5.3591044028</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>485</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B13" s="0" t="n">
         <v>199.48</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C13" s="0" t="n">
         <v>2.7585503439</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>209</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>197</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>199.6</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.62480768092719</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/synapse_integration_testing/cleaned_data/timings_84_cleaned.xlsx
+++ b/synapse_integration_testing/cleaned_data/timings_84_cleaned.xlsx
@@ -106,6 +106,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEFCFFF"/>
+      <color rgb="FFD883FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -140,7 +146,9 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -258,7 +266,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="100"/>
         <c:overlap val="-27"/>
         <c:axId val="-2105568096"/>
         <c:axId val="-2105888640"/>
@@ -273,11 +281,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -306,11 +314,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -348,7 +356,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -398,7 +406,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -431,7 +439,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -462,7 +470,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -498,12 +506,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -513,7 +516,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="2000" b="0" i="0">
+        <a:defRPr sz="1800" b="0" i="0">
           <a:latin typeface="Nimbus Roman Becker No9L" charset="0"/>
           <a:ea typeface="Nimbus Roman Becker No9L" charset="0"/>
           <a:cs typeface="Nimbus Roman Becker No9L" charset="0"/>

--- a/synapse_integration_testing/cleaned_data/timings_84_cleaned.xlsx
+++ b/synapse_integration_testing/cleaned_data/timings_84_cleaned.xlsx
@@ -304,7 +304,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.443873208156673"/>
+              <c:y val="0.926550868486352"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -420,12 +427,29 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (s)</a:t>
+                  <a:t>Execution Time T</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000">
+                    <a:latin typeface="+mj-lt"/>
+                  </a:rPr>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00683760683760684"/>
+              <c:y val="0.227837087981868"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
